--- a/38_mr_white/mr_white_data.xlsx
+++ b/38_mr_white/mr_white_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,19 +11,364 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="80">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Mr. White</t>
+  </si>
+  <si>
+    <t>N. Subject</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>169/108</t>
+  </si>
+  <si>
+    <t>120 / 80</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>Beats / Min</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>degree F</t>
+  </si>
+  <si>
+    <t>Respiration Rate</t>
+  </si>
+  <si>
+    <t>Breaths / Min</t>
+  </si>
+  <si>
+    <t>pCO2</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH Units</t>
+  </si>
+  <si>
+    <t>[H+]</t>
+  </si>
+  <si>
+    <t>pMol/L</t>
+  </si>
+  <si>
+    <t>[HCO3-]</t>
+  </si>
+  <si>
+    <t>mEq/L</t>
+  </si>
+  <si>
+    <t>[Na+]</t>
+  </si>
+  <si>
+    <t>[K+]</t>
+  </si>
+  <si>
+    <t>[Cl-]</t>
+  </si>
+  <si>
+    <t>[BUN]</t>
+  </si>
+  <si>
+    <t>mG/dL</t>
+  </si>
+  <si>
+    <t>[Protein]</t>
+  </si>
+  <si>
+    <t>G/dL</t>
+  </si>
+  <si>
+    <t>Osmolality</t>
+  </si>
+  <si>
+    <t>mOsm/L</t>
+  </si>
+  <si>
+    <t>Hematocrit</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <r>
+      <t>Na+ ___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.215</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>___ mEq/Min x 1440 = __</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>309.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">____ mEq/Day </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K+ ___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.065</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>___ mEq/Min x 1440 = __</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>93.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">____ mEq/Day </t>
+    </r>
+  </si>
+  <si>
+    <t>Na+ Intake</t>
+  </si>
+  <si>
+    <t>mEq/Day</t>
+  </si>
+  <si>
+    <t>Na+ Output</t>
+  </si>
+  <si>
+    <t>K+ Intake</t>
+  </si>
+  <si>
+    <t>K+ Output</t>
+  </si>
+  <si>
+    <t>ECFV Na+ Mass</t>
+  </si>
+  <si>
+    <t>mEq</t>
+  </si>
+  <si>
+    <t>ECFV K+ Mass</t>
+  </si>
+  <si>
+    <t>ECFV [K+]</t>
+  </si>
+  <si>
+    <t>Cell K+ Mass</t>
+  </si>
+  <si>
+    <t>Cell [K+]</t>
+  </si>
+  <si>
+    <t>[AngII]</t>
+  </si>
+  <si>
+    <t>pG/mL</t>
+  </si>
+  <si>
+    <t>Renin (PRA)</t>
+  </si>
+  <si>
+    <t>GU/mL</t>
+  </si>
+  <si>
+    <t>[Aldo]</t>
+  </si>
+  <si>
+    <t>[ADH]</t>
+  </si>
+  <si>
+    <t>[ANP]</t>
+  </si>
+  <si>
+    <t>Na+ Inflow</t>
+  </si>
+  <si>
+    <t>mEq/Min</t>
+  </si>
+  <si>
+    <t>Na+ Reabsorption</t>
+  </si>
+  <si>
+    <t>Na+ Outflow</t>
+  </si>
+  <si>
+    <t>Fractional Na+ Reabsorption</t>
+  </si>
+  <si>
+    <t>K+ Secretion</t>
+  </si>
+  <si>
+    <t>[Aldo] Effect</t>
+  </si>
+  <si>
+    <t>X Normal</t>
+  </si>
+  <si>
+    <t>[K+] Effect</t>
+  </si>
+  <si>
+    <t>Na+ Load Effect</t>
+  </si>
+  <si>
+    <t>GFR</t>
+  </si>
+  <si>
+    <t>mL/Min</t>
+  </si>
+  <si>
+    <t>Fractional Reabsorption</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>169  /112</t>
+  </si>
+  <si>
+    <t>Plasma [K+]</t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <t>166/108</t>
+  </si>
+  <si>
+    <t>152 /100</t>
+  </si>
+  <si>
+    <t>120/81</t>
+  </si>
+  <si>
+    <t>109/71</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>152/100</t>
+  </si>
+  <si>
+    <t>163 /112</t>
+  </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <t>163/112</t>
+  </si>
+  <si>
+    <t>148 /100</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,12 +387,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +757,1141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:D98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4">
+        <v>72</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>98.4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>98.6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.44</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7.39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>148</v>
+      </c>
+      <c r="C14" s="4">
+        <v>144</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4">
+        <v>89</v>
+      </c>
+      <c r="C16" s="4">
+        <v>108</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4">
+        <v>303</v>
+      </c>
+      <c r="C19" s="4">
+        <v>292</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4">
+        <v>300</v>
+      </c>
+      <c r="C26" s="4">
+        <v>180</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="C27" s="4">
+        <v>180</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4">
+        <v>70</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2150</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>66</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="C36" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3404</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3960</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4">
+        <v>143</v>
+      </c>
+      <c r="C38" s="4">
+        <v>141</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <v>20</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1606</v>
+      </c>
+      <c r="C43" s="4">
+        <v>330</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4">
+        <v>25</v>
+      </c>
+      <c r="C45" s="4">
+        <v>20</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="47" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4">
+        <v>91</v>
+      </c>
+      <c r="C51" s="4">
+        <v>78</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="53" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="4">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="59" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="4">
+        <v>140</v>
+      </c>
+      <c r="C60" s="4">
+        <v>125</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="62" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="4">
+        <v>20</v>
+      </c>
+      <c r="C63" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="C65" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4">
+        <v>31</v>
+      </c>
+      <c r="C66" s="4">
+        <v>58</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="68" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="72" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A74" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="76" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C78" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="80" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A82" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="84" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="C86" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="88" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A91" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="4">
+        <v>91</v>
+      </c>
+      <c r="C92" s="4">
+        <v>78</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="94" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A96" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" s="4">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A98" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/38_mr_white/mr_white_data.xlsx
+++ b/38_mr_white/mr_white_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
   <si>
     <t>Variable</t>
   </si>
@@ -336,6 +336,21 @@
   </si>
   <si>
     <t>148 /100</t>
+  </si>
+  <si>
+    <t>At Surgery</t>
+  </si>
+  <si>
+    <t>1 Week Post-OP</t>
+  </si>
+  <si>
+    <t>This is in the post script</t>
+  </si>
+  <si>
+    <t>135/95</t>
+  </si>
+  <si>
+    <t>148/100</t>
   </si>
 </sst>
 </file>
@@ -443,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -462,6 +477,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:D98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,7 +788,7 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -826,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45.75" thickBot="1">
+    <row r="5" spans="1:4" ht="30.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1887,6 +1905,53 @@
       </c>
       <c r="D98" s="5" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A100" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A103" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C103" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/38_mr_white/mr_white_data.xlsx
+++ b/38_mr_white/mr_white_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
   <si>
     <t>Variable</t>
   </si>
@@ -351,6 +351,63 @@
   </si>
   <si>
     <t>148/100</t>
+  </si>
+  <si>
+    <t>Chart, Initial</t>
+  </si>
+  <si>
+    <t>Blood Test, Initial</t>
+  </si>
+  <si>
+    <t>Electrolytes, Initial</t>
+  </si>
+  <si>
+    <t>Dietary Intake, Initial</t>
+  </si>
+  <si>
+    <t>Sodium, initial</t>
+  </si>
+  <si>
+    <t>Potassium data, initial</t>
+  </si>
+  <si>
+    <t>Hormone values, initial</t>
+  </si>
+  <si>
+    <t>Sodium data, intitial</t>
+  </si>
+  <si>
+    <t>Hormonal and ion effects, initial</t>
+  </si>
+  <si>
+    <t>Glomerulal filtration rate, initial</t>
+  </si>
+  <si>
+    <t>Proximal Tubule, initial</t>
+  </si>
+  <si>
+    <t>Additional K+ and Cl- dietary treatment</t>
+  </si>
+  <si>
+    <t>Addition of AngII blockers to above treatment</t>
+  </si>
+  <si>
+    <t>Normal subject response to AngII blocker</t>
+  </si>
+  <si>
+    <t>Removing AngII blocker</t>
+  </si>
+  <si>
+    <t>Reducing salt intake</t>
+  </si>
+  <si>
+    <t>Distal tubule sodium data, after treatment</t>
+  </si>
+  <si>
+    <t>Various effects, post-treatment</t>
+  </si>
+  <si>
+    <t>Data for tumor removal in postscript</t>
   </si>
 </sst>
 </file>
@@ -775,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -786,9 +843,10 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -815,8 +873,11 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -830,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1">
+    <row r="4" spans="1:5" ht="30.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -844,7 +905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1">
+    <row r="5" spans="1:5" ht="30.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -858,8 +919,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -886,8 +947,11 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -901,7 +965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -915,7 +979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -929,8 +993,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -957,8 +1021,11 @@
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -972,7 +1039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -986,7 +1053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30.75" thickBot="1">
+    <row r="19" spans="1:5" ht="30.75" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1042,18 +1109,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:5" ht="16.5" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30.75" thickBot="1">
+    <row r="26" spans="1:5" ht="30.75" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1080,8 +1147,11 @@
       <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1095,7 +1165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1">
+    <row r="28" spans="1:5" ht="30.75" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1109,7 +1179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30.75" thickBot="1">
+    <row r="29" spans="1:5" ht="30.75" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1123,8 +1193,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="31" spans="1:4" ht="16.5" thickBot="1">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:5" ht="16.5" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30.75" thickBot="1">
+    <row r="32" spans="1:5" ht="30.75" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1151,9 +1221,12 @@
       <c r="D32" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:4" ht="16.5" thickBot="1">
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:5" ht="16.5" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
@@ -1180,8 +1253,11 @@
       <c r="D35" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1195,7 +1271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -1209,7 +1285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1223,8 +1299,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="40" spans="1:4" ht="16.5" thickBot="1">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="40" spans="1:5" ht="16.5" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -1251,8 +1327,11 @@
       <c r="D41" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -1266,7 +1345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -1280,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -1294,7 +1373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -1308,8 +1387,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="47" spans="1:4" ht="16.5" thickBot="1">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="47" spans="1:5" ht="16.5" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30.75" thickBot="1">
+    <row r="48" spans="1:5" ht="30.75" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -1336,8 +1415,11 @@
       <c r="D48" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30.75" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -1351,7 +1433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30.75" thickBot="1">
+    <row r="50" spans="1:5" ht="30.75" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -1365,7 +1447,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30.75" thickBot="1">
+    <row r="51" spans="1:5" ht="30.75" thickBot="1">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -1379,8 +1461,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="53" spans="1:4" ht="16.5" thickBot="1">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="53" spans="1:5" ht="16.5" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30.75" thickBot="1">
+    <row r="54" spans="1:5" ht="30.75" thickBot="1">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -1408,7 +1490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30.75" thickBot="1">
+    <row r="55" spans="1:5" ht="30.75" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -1421,8 +1503,11 @@
       <c r="D55" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30.75" thickBot="1">
       <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
@@ -1436,7 +1521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30.75" thickBot="1">
+    <row r="57" spans="1:5" ht="30.75" thickBot="1">
       <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
@@ -1450,8 +1535,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="59" spans="1:4" ht="16.5" thickBot="1">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="59" spans="1:5" ht="16.5" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -1478,9 +1563,12 @@
       <c r="D60" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="62" spans="1:4" ht="16.5" thickBot="1">
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="62" spans="1:5" ht="16.5" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30.75" thickBot="1">
+    <row r="63" spans="1:5" ht="30.75" thickBot="1">
       <c r="A63" s="3" t="s">
         <v>52</v>
       </c>
@@ -1508,7 +1596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30.75" thickBot="1">
+    <row r="64" spans="1:5" ht="30.75" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -1521,8 +1609,11 @@
       <c r="D64" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30.75" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>55</v>
       </c>
@@ -1536,7 +1627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30.75" thickBot="1">
+    <row r="66" spans="1:5" ht="30.75" thickBot="1">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -1550,8 +1641,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="68" spans="1:4" ht="16.5" thickBot="1">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="68" spans="1:5" ht="16.5" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -1578,8 +1669,11 @@
       <c r="D69" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -1593,8 +1687,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="72" spans="1:4" ht="16.5" thickBot="1">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="72" spans="1:5" ht="16.5" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1">
       <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,8 +1715,11 @@
       <c r="D73" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -1636,8 +1733,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="76" spans="1:4" ht="16.5" thickBot="1">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="76" spans="1:5" ht="16.5" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1">
+    <row r="77" spans="1:5" ht="15.75" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -1664,8 +1761,11 @@
       <c r="D77" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1">
       <c r="A78" s="3" t="s">
         <v>68</v>
       </c>
@@ -1679,8 +1779,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="80" spans="1:4" ht="16.5" thickBot="1">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="80" spans="1:5" ht="16.5" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1">
       <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
@@ -1707,8 +1807,11 @@
       <c r="D81" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1">
       <c r="A82" s="3" t="s">
         <v>68</v>
       </c>
@@ -1722,8 +1825,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="84" spans="1:4" ht="16.5" thickBot="1">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="84" spans="1:5" ht="16.5" thickBot="1">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
@@ -1750,8 +1853,11 @@
       <c r="D85" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1">
       <c r="A86" s="3" t="s">
         <v>68</v>
       </c>
@@ -1765,8 +1871,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="88" spans="1:4" ht="16.5" thickBot="1">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="88" spans="1:5" ht="16.5" thickBot="1">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30.75" thickBot="1">
+    <row r="89" spans="1:5" ht="30.75" thickBot="1">
       <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
@@ -1793,8 +1899,11 @@
       <c r="D89" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30.75" thickBot="1">
       <c r="A90" s="3" t="s">
         <v>54</v>
       </c>
@@ -1808,7 +1917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30.75" thickBot="1">
+    <row r="91" spans="1:5" ht="30.75" thickBot="1">
       <c r="A91" s="3" t="s">
         <v>55</v>
       </c>
@@ -1822,7 +1931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30.75" thickBot="1">
+    <row r="92" spans="1:5" ht="30.75" thickBot="1">
       <c r="A92" s="3" t="s">
         <v>64</v>
       </c>
@@ -1836,8 +1945,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="94" spans="1:4" ht="16.5" thickBot="1">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="94" spans="1:5" ht="16.5" thickBot="1">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30.75" thickBot="1">
+    <row r="95" spans="1:5" ht="30.75" thickBot="1">
       <c r="A95" s="3" t="s">
         <v>57</v>
       </c>
@@ -1864,8 +1973,11 @@
       <c r="D95" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="30.75" thickBot="1">
+      <c r="E95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30.75" thickBot="1">
       <c r="A96" s="3" t="s">
         <v>58</v>
       </c>
@@ -1879,7 +1991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30.75" thickBot="1">
+    <row r="97" spans="1:5" ht="30.75" thickBot="1">
       <c r="A97" s="3" t="s">
         <v>60</v>
       </c>
@@ -1893,7 +2005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30.75" thickBot="1">
+    <row r="98" spans="1:5" ht="30.75" thickBot="1">
       <c r="A98" s="3" t="s">
         <v>61</v>
       </c>
@@ -1907,12 +2019,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30.75" thickBot="1">
+    <row r="100" spans="1:5" ht="30.75" thickBot="1">
       <c r="A100" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="32.25" thickBot="1">
+    <row r="101" spans="1:5" ht="32.25" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1">
+    <row r="102" spans="1:5" ht="15.75" thickBot="1">
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
@@ -1939,8 +2051,11 @@
       <c r="D102" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1">
       <c r="A103" s="3" t="s">
         <v>68</v>
       </c>
@@ -1956,7 +2071,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
